--- a/src/main/resources/Input/Input_VSP.xlsx
+++ b/src/main/resources/Input/Input_VSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andras_Torok\Downloads\Egyetem\Ütemezési modellek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andras_Torok\Projects\Idea-Projects\Scheduling\src\main\resources\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E12C0B-BD6F-4855-9774-5DADB1886847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36349770-8BA7-47DA-94E8-02B64E0CA409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>Menettartam</t>
-  </si>
-  <si>
-    <t>Technológiai id_x0019_ ő</t>
-  </si>
-  <si>
-    <t>Kiegyenlít_x0019_ ő id_x0019_ ő</t>
   </si>
   <si>
     <t>Utazási seb.(km/h)</t>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>érk (perc)</t>
+  </si>
+  <si>
+    <t>Technológiai idő</t>
+  </si>
+  <si>
+    <t>Kiegyenlítő idő</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
   <dimension ref="A2:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
         <v>2105</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>3028</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1050,12 +1050,12 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>0.20902777777777778</v>
@@ -1158,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>0.25</v>
@@ -1187,10 +1187,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>0.27083333333333331</v>
@@ -1216,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
         <v>0.28125</v>
@@ -1245,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
         <v>0.29166666666666669</v>
@@ -1274,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
         <v>0.30208333333333331</v>
@@ -1303,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>0.3125</v>
@@ -1332,10 +1332,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>0.32291666666666669</v>
@@ -1361,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
         <v>0.33333333333333331</v>
@@ -1390,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>0.35486111111111113</v>
@@ -1419,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <v>0.375</v>
@@ -1448,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
         <v>0.39583333333333331</v>
@@ -1477,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
         <v>0.41666666666666669</v>
@@ -1506,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1">
         <v>0.66666666666666663</v>
@@ -1535,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1">
         <v>0.6875</v>
@@ -1564,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
         <v>0.70833333333333337</v>
@@ -1593,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1">
         <v>0.75</v>
@@ -1622,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1">
         <v>0.77083333333333337</v>
@@ -1651,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1">
         <v>0.79166666666666663</v>
@@ -1680,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
         <v>0.8125</v>
@@ -1709,10 +1709,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
         <v>0.83333333333333337</v>
@@ -1738,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1">
         <v>0.85416666666666663</v>
@@ -1767,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1">
         <v>0.875</v>
@@ -1796,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
         <v>0.89583333333333337</v>
@@ -1825,10 +1825,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
         <v>0.91666666666666663</v>
@@ -1854,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1">
         <v>0.20902777777777778</v>
@@ -1912,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1">
         <v>0.22916666666666666</v>
@@ -1941,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" s="1">
         <v>0.25</v>
@@ -1970,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G39" s="1">
         <v>0.26041666666666669</v>
@@ -1999,10 +1999,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1">
         <v>0.27083333333333331</v>
@@ -2028,10 +2028,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1">
         <v>0.28125</v>
@@ -2057,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
         <v>0.29166666666666669</v>
@@ -2086,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1">
         <v>0.30208333333333331</v>
@@ -2115,10 +2115,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1">
         <v>0.3125</v>
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1">
         <v>0.33333333333333331</v>
@@ -2173,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1">
         <v>0.375</v>
@@ -2202,10 +2202,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1">
         <v>0.41666666666666669</v>
@@ -2231,10 +2231,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
         <v>0.66666666666666663</v>
@@ -2260,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1">
         <v>0.75</v>
@@ -2289,10 +2289,10 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1">
         <v>0.76041666666666663</v>
@@ -2318,10 +2318,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1">
         <v>0.77083333333333337</v>
@@ -2347,10 +2347,10 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1">
         <v>0.78125</v>
@@ -2376,10 +2376,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1">
         <v>0.79166666666666663</v>
@@ -2405,10 +2405,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1">
         <v>0.8125</v>
@@ -2434,10 +2434,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1">
         <v>0.83333333333333337</v>
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1">
         <v>0.85416666666666663</v>
@@ -2492,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1">
         <v>0.89583333333333337</v>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G58" s="1">
         <v>0.125</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1">
         <v>0.125</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
         <v>0.29166666666666669</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1">
         <v>0.79166666666666663</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2692,13 +2692,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G64" s="1">
         <v>0.79166666666666663</v>
@@ -2740,13 +2740,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
         <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,7 +2856,7 @@
         <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>471</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>483</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,7 +2944,7 @@
         <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>514</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>523</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>533</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>543</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>558</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>573</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +3021,7 @@
         <v>587</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>602</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>617</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>632</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>646</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>661</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>676</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>691</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>706</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>721</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,7 +3131,7 @@
         <v>736</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>751</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
         <v>766</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>781</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>796</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>811</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>826</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>841</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>856</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
         <v>871</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>886</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>910</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>922</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>934</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>946</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
         <v>958</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3318,7 +3318,7 @@
         <v>970</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <v>982</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>994</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>1019</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>1031</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>1043</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +3395,7 @@
         <v>1055</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,7 +3406,7 @@
         <v>1067</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>1079</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>1091</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>1103</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>1115</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>1126</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>1137</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>1148</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>1161</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>1175</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>1190</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>1204</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>1219</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>1233</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>1248</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>1262</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
         <v>1277</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
         <v>1292</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>1310</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>1327</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,7 +3626,7 @@
         <v>1347</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
         <v>1367</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,7 +3648,7 @@
         <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
         <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>396</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
         <v>437</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
         <v>459</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>469</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>480</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
         <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>501</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
         <v>523</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +3813,7 @@
         <v>533</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
         <v>543</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
         <v>552</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
         <v>562</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>572</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>581</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>591</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>603</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>617</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,7 +3912,7 @@
         <v>632</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>646</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>661</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>676</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>691</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>706</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
         <v>721</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,7 +3989,7 @@
         <v>736</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>751</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>766</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,7 +4022,7 @@
         <v>781</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,7 +4033,7 @@
         <v>796</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>811</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>826</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>841</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
         <v>856</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>871</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>886</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,7 +4110,7 @@
         <v>901</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>916</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>931</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>943</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>955</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>967</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>979</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>991</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>1004</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>1016</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>1029</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>1041</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>1053</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,7 +4253,7 @@
         <v>1066</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4264,7 +4264,7 @@
         <v>1078</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
         <v>1090</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>1102</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>1114</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>1125</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>1137</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>1148</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>1160</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>1172</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>1183</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>1195</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>1207</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>1221</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>1234</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,7 +4418,7 @@
         <v>1247</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,7 +4429,7 @@
         <v>1262</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>1276</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>1291</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
         <v>1305</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>1320</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>1334</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>1349</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
         <v>1362</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>1382</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>1402</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
